--- a/01-19-25 to 01-25-25 Madison Schedule.xlsx
+++ b/01-19-25 to 01-25-25 Madison Schedule.xlsx
@@ -1451,7 +1451,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="W21" t="inlineStr"/>
@@ -1510,15 +1510,10 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Corolla</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
     </row>
@@ -1582,10 +1577,15 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Corolla</t>
+        </is>
+      </c>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
     </row>
@@ -1633,15 +1633,10 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>Driver,
-Silver Van</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
     </row>
@@ -1702,10 +1697,15 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Kayla</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Driver,
+Silver Van</t>
+        </is>
+      </c>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
     </row>
@@ -1770,14 +1770,10 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
     </row>
@@ -1842,12 +1838,12 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>@ Store, Driver</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X27" t="inlineStr"/>
@@ -1897,12 +1893,12 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Driver</t>
         </is>
       </c>
       <c r="X28" t="inlineStr"/>
@@ -1964,7 +1960,7 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
@@ -2035,7 +2031,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
@@ -2106,7 +2102,7 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
@@ -2154,9 +2150,21 @@
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
     </row>
@@ -2266,11 +2274,7 @@
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>5:00 AM START</t>
-        </is>
-      </c>
+      <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
@@ -2328,7 +2332,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>5:00 AM START</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2387,7 +2391,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>ALBRECHT'S DELAFIELD MARKET</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2442,7 +2446,7 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>3255 GOLF RD</t>
+          <t>ALBRECHT'S DELAFIELD MARKET</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2509,7 +2513,7 @@
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/UZh6uE9Zs2H2</t>
+          <t>3255 GOLF RD</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2576,7 +2580,7 @@
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
         <is>
-          <t>*IL Meet is 3:30 am at IL Office</t>
+          <t>https://goo.gl/maps/UZh6uE9Zs2H2</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -2625,7 +2629,11 @@
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>*IL Meet is 3:30 am at IL Office</t>
+        </is>
+      </c>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
@@ -2683,21 +2691,9 @@
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
     </row>
@@ -2764,15 +2760,19 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Lorena</t>
-        </is>
-      </c>
-      <c r="W42" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
     </row>
@@ -2840,20 +2840,15 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima</t>
-        </is>
-      </c>
+          <t>Lorena</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
     </row>
@@ -2896,12 +2891,12 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
@@ -2940,15 +2935,20 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Optima</t>
+        </is>
+      </c>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
     </row>
@@ -2987,19 +2987,15 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
     </row>
@@ -3042,12 +3038,12 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
@@ -3097,12 +3093,12 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
@@ -3152,12 +3148,12 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
@@ -3207,12 +3203,12 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
@@ -3254,12 +3250,12 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
@@ -3321,12 +3317,12 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
@@ -3392,12 +3388,12 @@
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
@@ -3463,12 +3459,12 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
@@ -3522,12 +3518,12 @@
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
@@ -3581,12 +3577,12 @@
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
@@ -3642,9 +3638,21 @@
       </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
     </row>

--- a/01-19-25 to 01-25-25 Madison Schedule.xlsx
+++ b/01-19-25 to 01-25-25 Madison Schedule.xlsx
@@ -1451,7 +1451,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W21" t="inlineStr"/>
@@ -1510,10 +1510,15 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Corolla</t>
+        </is>
+      </c>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
     </row>
@@ -1577,15 +1582,10 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Corolla</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
     </row>
@@ -1633,10 +1633,15 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Driver,
+Silver Van</t>
+        </is>
+      </c>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
     </row>
@@ -1697,15 +1702,10 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>Driver,
-Silver Van</t>
-        </is>
-      </c>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
     </row>
@@ -1770,10 +1770,14 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Kayla</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
     </row>
@@ -1838,12 +1842,12 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Driver</t>
         </is>
       </c>
       <c r="X27" t="inlineStr"/>
@@ -1893,12 +1897,12 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>@ Store, Driver</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X28" t="inlineStr"/>
@@ -1960,7 +1964,7 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
@@ -2031,7 +2035,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
@@ -2102,7 +2106,7 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
@@ -2150,21 +2154,9 @@
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>Terri</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
     </row>
@@ -2274,7 +2266,11 @@
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>5:00 AM START</t>
+        </is>
+      </c>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
@@ -2332,7 +2328,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>5:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2391,7 +2387,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>ALBRECHT'S DELAFIELD MARKET</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2446,7 +2442,7 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>ALBRECHT'S DELAFIELD MARKET</t>
+          <t>3255 GOLF RD</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2513,7 +2509,7 @@
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t>3255 GOLF RD</t>
+          <t>https://goo.gl/maps/UZh6uE9Zs2H2</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2580,7 +2576,7 @@
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/UZh6uE9Zs2H2</t>
+          <t>*IL Meet is 3:30 am at IL Office</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -2629,11 +2625,7 @@
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>*IL Meet is 3:30 am at IL Office</t>
-        </is>
-      </c>
+      <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
@@ -2691,9 +2683,21 @@
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
     </row>
@@ -2760,17 +2764,18 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Driver, 1/2
+Optima</t>
         </is>
       </c>
       <c r="X42" t="inlineStr"/>
@@ -2840,15 +2845,20 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Lorena</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Optima</t>
+        </is>
+      </c>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
     </row>
@@ -2891,20 +2901,15 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
     </row>
@@ -2935,18 +2940,17 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Optima</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X45" t="inlineStr"/>
@@ -2987,15 +2991,19 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="W46" t="inlineStr"/>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
     </row>
@@ -3038,12 +3046,12 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
@@ -3093,12 +3101,12 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
@@ -3148,12 +3156,12 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
@@ -3203,12 +3211,12 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
@@ -3250,12 +3258,12 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
@@ -3317,12 +3325,12 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
@@ -3388,12 +3396,12 @@
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
@@ -3459,12 +3467,12 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
@@ -3518,12 +3526,12 @@
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
@@ -3575,21 +3583,9 @@
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="W56" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
     </row>
@@ -3638,21 +3634,9 @@
       </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="W57" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
     </row>

--- a/01-19-25 to 01-25-25 Madison Schedule.xlsx
+++ b/01-19-25 to 01-25-25 Madison Schedule.xlsx
@@ -3792,7 +3792,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>7:15 am meet for Sarah, Aivy &amp; Lori at WI Dells Walmart</t>
+          <t>7:15 am meet for Sarah, Aivy &amp; Lori at WI Dells Walmart (Aivy will follow crew in her own car)</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
@@ -3918,7 +3918,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>@ WI Dells</t>
+          <t>@ WI Dells, Follow in her own car, Until 2</t>
         </is>
       </c>
       <c r="L65" t="inlineStr"/>

--- a/01-19-25 to 01-25-25 Madison Schedule.xlsx
+++ b/01-19-25 to 01-25-25 Madison Schedule.xlsx
@@ -1373,10 +1373,15 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Corolla</t>
+        </is>
+      </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
@@ -1434,13 +1439,12 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Corolla</t>
+          <t>Driver</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
@@ -1491,16 +1495,8 @@
         </is>
       </c>
       <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>Kayla</t>
-        </is>
-      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
@@ -1559,21 +1555,9 @@
         </is>
       </c>
       <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>Driver</t>
-        </is>
-      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
@@ -1623,7 +1607,11 @@
       </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
@@ -1692,7 +1680,11 @@
       </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
@@ -1758,7 +1750,7 @@
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>KELLEY #29, HARRISON AVE MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="S26" t="inlineStr"/>
@@ -1830,7 +1822,7 @@
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>2624 STOWMARKET AVE</t>
         </is>
       </c>
       <c r="S27" t="inlineStr"/>
@@ -1885,7 +1877,7 @@
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
         <is>
-          <t>KELLEY #29, HARRISON AVE MOBIL, ROCKFORD</t>
+          <t>https://goo.gl/maps/as8c6yxHpQS2</t>
         </is>
       </c>
       <c r="S28" t="inlineStr"/>
@@ -1952,7 +1944,7 @@
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
-          <t>2624 STOWMARKET AVE</t>
+          <t>*JEFF IS THE DM</t>
         </is>
       </c>
       <c r="S29" t="inlineStr"/>
@@ -2021,11 +2013,7 @@
       </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/as8c6yxHpQS2</t>
-        </is>
-      </c>
+      <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
@@ -2091,13 +2079,21 @@
         </is>
       </c>
       <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>*JEFF IS THE DM</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
@@ -2150,8 +2146,16 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Angela</t>
+        </is>
+      </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
@@ -2195,19 +2199,15 @@
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
@@ -2255,12 +2255,12 @@
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -2315,12 +2315,12 @@
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2374,12 +2374,12 @@
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2429,12 +2429,12 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2494,16 +2494,8 @@
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>Lorena</t>
-        </is>
-      </c>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
@@ -2561,16 +2553,8 @@
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
@@ -2621,7 +2605,11 @@
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
@@ -2680,7 +2668,11 @@
       </c>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
@@ -2757,7 +2749,7 @@
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>CONDON OIL #175, RANDOLPH</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -2838,7 +2830,7 @@
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>154 E KIENOW DR</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -2894,7 +2886,7 @@
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>CONDON OIL #175, RANDOLPH</t>
+          <t>https://goo.gl/maps/gLRK63LNv182</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -2906,10 +2898,14 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
     </row>
@@ -2933,7 +2929,7 @@
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
         <is>
-          <t>154 E KIENOW DR</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -2945,7 +2941,7 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
@@ -2984,7 +2980,7 @@
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/gLRK63LNv182</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -2996,7 +2992,7 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
@@ -3039,7 +3035,7 @@
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>CONDON OIL #190, WAUPUN</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -3051,7 +3047,7 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
@@ -3094,7 +3090,7 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>612 E MAIN ST</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -3106,7 +3102,7 @@
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
@@ -3149,7 +3145,7 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>CONDON OIL #190, WAUPUN</t>
+          <t>https://goo.gl/maps/JDEB8kGCMzC2</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -3161,7 +3157,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
@@ -3202,11 +3198,7 @@
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>612 E MAIN ST</t>
-        </is>
-      </c>
+      <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
@@ -3216,7 +3208,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
@@ -3248,13 +3240,21 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/JDEB8kGCMzC2</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr"/>
+          <t>Michelle</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
@@ -3319,9 +3319,21 @@
         </is>
       </c>
       <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
@@ -3330,7 +3342,7 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
@@ -3378,21 +3390,9 @@
       </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>Michelle</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
@@ -3449,21 +3449,9 @@
       </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
@@ -3472,7 +3460,7 @@
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
@@ -3521,24 +3509,16 @@
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6:30 AM START </t>
+        </is>
+      </c>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="V55" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="W55" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
     </row>
@@ -3580,7 +3560,11 @@
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>MODAS</t>
+        </is>
+      </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
@@ -3629,7 +3613,7 @@
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:30 AM START </t>
+          <t>KELLEY #19, HONONEGAH MOBIL, ROSCOE</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -3664,7 +3648,7 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>5213 ELEVATOR RD</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -3699,7 +3683,7 @@
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>KELLEY #19, HONONEGAH MOBIL, ROSCOE</t>
+          <t>https://goo.gl/maps/gdPX1c1pWf12</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -3732,11 +3716,7 @@
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>5213 ELEVATOR RD</t>
-        </is>
-      </c>
+      <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
@@ -3766,13 +3746,21 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/gdPX1c1pWf12</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>
@@ -3801,8 +3789,16 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>Emily L</t>
+        </is>
+      </c>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
@@ -3830,19 +3826,15 @@
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Laci</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr"/>
@@ -3881,15 +3873,19 @@
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr"/>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>Until 8:15</t>
+        </is>
+      </c>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
@@ -3928,12 +3924,12 @@
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="S65" t="inlineStr"/>
@@ -3975,19 +3971,15 @@
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>Until 8:15</t>
-        </is>
-      </c>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>
@@ -4012,16 +4004,8 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
@@ -4047,16 +4031,8 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>

--- a/01-19-25 to 01-25-25 Madison Schedule.xlsx
+++ b/01-19-25 to 01-25-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y82"/>
+  <dimension ref="A1:Y81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2184,12 +2184,13 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="L33" t="inlineStr"/>
@@ -2235,13 +2236,13 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>@ Store,
-Supv Rx</t>
+Rx</t>
         </is>
       </c>
       <c r="L34" t="inlineStr"/>
@@ -2295,13 +2296,12 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L35" t="inlineStr"/>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2410,7 +2410,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2477,7 +2477,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2591,7 +2591,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2802,7 +2802,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -2863,21 +2863,9 @@
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Victor</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
@@ -2966,7 +2954,11 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>8:00 AM START</t>
+        </is>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
@@ -3019,7 +3011,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>8:00 AM START</t>
+          <t xml:space="preserve">DC5-ITEM LEVEL </t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -3074,7 +3066,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL </t>
+          <t>MILE BLUFF NECEDAH MEDICAL REMOTE DISPENSING SITE, NECEDAH</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -3129,7 +3121,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>MILE BLUFF NECEDAH MEDICAL REMOTE DISPENSING SITE, NECEDAH</t>
+          <t>1408 WEELIHAN AVE</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
@@ -3184,7 +3176,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>1408 WEELIHAN AVE</t>
+          <t>https://goo.gl/maps/VCUnQvrCdQvsWgxA8</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
@@ -3231,7 +3223,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/VCUnQvrCdQvsWgxA8</t>
+          <t xml:space="preserve">TO FOLLOW    </t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -3298,7 +3290,7 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW    </t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
@@ -3373,7 +3365,7 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>MILE BLUFF ELROY CLINIC OUTPATIENT PHARMACY, ELROY</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
@@ -3432,7 +3424,7 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>MILE BLUFF ELROY CLINIC OUTPATIENT PHARMACY, ELROY</t>
+          <t>1515 ACADEMY ST</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
@@ -3491,7 +3483,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>1515 ACADEMY ST</t>
+          <t>https://goo.gl/maps/TFEAdXw87Xhzr4iPA</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -3542,7 +3534,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TFEAdXw87Xhzr4iPA</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -3593,7 +3585,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -3636,7 +3628,7 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>MILE BLUFF NEW LISBON FAMILY CENTER, NEW LISBON</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3671,7 +3663,7 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>MILE BLUFF NEW LISBON FAMILY CENTER, NEW LISBON</t>
+          <t>901 W BRIDGE ST</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -3706,7 +3698,7 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>901 W BRIDGE ST</t>
+          <t>https://maps.app.goo.gl/bQ1in55fdyPED6jB9</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -3737,7 +3729,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/bQ1in55fdyPED6jB9</t>
+          <t>7:15 am meet for Sarah, Aivy &amp; Lori at WI Dells Walmart (Aivy will follow crew in her own car)</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -3778,11 +3770,7 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>7:15 am meet for Sarah, Aivy &amp; Lori at WI Dells Walmart (Aivy will follow crew in her own car)</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
@@ -3816,9 +3804,21 @@
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Driver, Equip</t>
+        </is>
+      </c>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
@@ -3853,17 +3853,17 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Driver, Equip</t>
+          <t>@ WI Dells, Follow in her own car, Until 2</t>
         </is>
       </c>
       <c r="L64" t="inlineStr"/>
@@ -3904,17 +3904,17 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>@ WI Dells, Follow in her own car, Until 2</t>
+          <t>@ WI Dells</t>
         </is>
       </c>
       <c r="L65" t="inlineStr"/>
@@ -3949,21 +3949,9 @@
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>@ WI Dells</t>
-        </is>
-      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
@@ -4024,7 +4012,11 @@
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6:30 AM START </t>
+        </is>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
@@ -4053,7 +4045,7 @@
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:30 AM START </t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
@@ -4084,7 +4076,7 @@
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>KELLEY #38, APPLEWOOD MOBIL, LOVES PARK</t>
         </is>
       </c>
       <c r="K70" t="inlineStr"/>
@@ -4115,7 +4107,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>KELLEY #38, APPLEWOOD MOBIL, LOVES PARK</t>
+          <t>5542 E RIVERSIDE BLVD</t>
         </is>
       </c>
       <c r="K71" t="inlineStr"/>
@@ -4146,7 +4138,7 @@
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>5542 E RIVERSIDE BLVD</t>
+          <t>https://goo.gl/maps/ogxkZD8yWLL2</t>
         </is>
       </c>
       <c r="K72" t="inlineStr"/>
@@ -4175,11 +4167,7 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/ogxkZD8yWLL2</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
@@ -4205,9 +4193,21 @@
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr"/>
@@ -4234,19 +4234,15 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
@@ -4273,12 +4269,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="K76" t="inlineStr"/>
@@ -4308,12 +4304,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K77" t="inlineStr"/>
@@ -4343,12 +4339,12 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="K78" t="inlineStr"/>
@@ -4378,12 +4374,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="K79" t="inlineStr"/>
@@ -4413,12 +4409,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="K80" t="inlineStr"/>
@@ -4448,12 +4444,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="K81" t="inlineStr"/>
@@ -4472,41 +4468,6 @@
       <c r="X81" t="inlineStr"/>
       <c r="Y81" t="inlineStr"/>
     </row>
-    <row r="82">
-      <c r="A82" t="inlineStr"/>
-      <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="inlineStr"/>
-      <c r="T82" t="inlineStr"/>
-      <c r="U82" t="inlineStr"/>
-      <c r="V82" t="inlineStr"/>
-      <c r="W82" t="inlineStr"/>
-      <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/01-19-25 to 01-25-25 Madison Schedule.xlsx
+++ b/01-19-25 to 01-25-25 Madison Schedule.xlsx
@@ -3881,11 +3881,7 @@
           <t>Spencer P</t>
         </is>
       </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>Until 8:15</t>
-        </is>
-      </c>
+      <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>

--- a/01-19-25 to 01-25-25 Madison Schedule.xlsx
+++ b/01-19-25 to 01-25-25 Madison Schedule.xlsx
@@ -3495,7 +3495,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3546,7 +3546,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3633,8 +3633,16 @@
       </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
@@ -3784,7 +3792,7 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="S62" t="inlineStr"/>
@@ -3831,7 +3839,7 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S63" t="inlineStr"/>
@@ -3878,7 +3886,7 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="S64" t="inlineStr"/>
@@ -3925,7 +3933,7 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="S65" t="inlineStr"/>
@@ -3960,7 +3968,7 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="S66" t="inlineStr"/>
@@ -3988,8 +3996,16 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>

--- a/01-19-25 to 01-25-25 Madison Schedule.xlsx
+++ b/01-19-25 to 01-25-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y81"/>
+  <dimension ref="A1:Y80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2795,21 +2795,9 @@
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Victor</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
@@ -2907,7 +2895,11 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>8:00 AM START</t>
+        </is>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
@@ -2956,7 +2948,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>8:00 AM START</t>
+          <t xml:space="preserve">DC5-ITEM LEVEL </t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -3011,7 +3003,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL </t>
+          <t>MILE BLUFF NECEDAH MEDICAL REMOTE DISPENSING SITE, NECEDAH</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -3066,7 +3058,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>MILE BLUFF NECEDAH MEDICAL REMOTE DISPENSING SITE, NECEDAH</t>
+          <t>1408 WEELIHAN AVE</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -3121,7 +3113,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>1408 WEELIHAN AVE</t>
+          <t>https://goo.gl/maps/VCUnQvrCdQvsWgxA8</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
@@ -3176,7 +3168,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/VCUnQvrCdQvsWgxA8</t>
+          <t xml:space="preserve">TO FOLLOW    </t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
@@ -3223,7 +3215,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW    </t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -3290,7 +3282,7 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>MILE BLUFF ELROY CLINIC OUTPATIENT PHARMACY, ELROY</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
@@ -3365,7 +3357,7 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>MILE BLUFF ELROY CLINIC OUTPATIENT PHARMACY, ELROY</t>
+          <t>1515 ACADEMY ST</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
@@ -3424,7 +3416,7 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>1515 ACADEMY ST</t>
+          <t>https://goo.gl/maps/TFEAdXw87Xhzr4iPA</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
@@ -3483,7 +3475,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TFEAdXw87Xhzr4iPA</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -3534,7 +3526,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -3585,7 +3577,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>MILE BLUFF NEW LISBON FAMILY CENTER, NEW LISBON</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -3628,7 +3620,7 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>MILE BLUFF NEW LISBON FAMILY CENTER, NEW LISBON</t>
+          <t>901 W BRIDGE ST</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3671,7 +3663,7 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>901 W BRIDGE ST</t>
+          <t>https://maps.app.goo.gl/bQ1in55fdyPED6jB9</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -3706,7 +3698,7 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/bQ1in55fdyPED6jB9</t>
+          <t>7:15 am meet for Sarah, Aivy &amp; Lori at WI Dells Walmart (Aivy will follow crew in her own car)</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -3735,11 +3727,7 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>7:15 am meet for Sarah, Aivy &amp; Lori at WI Dells Walmart (Aivy will follow crew in her own car)</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
@@ -3777,9 +3765,21 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Driver, Equip</t>
+        </is>
+      </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
@@ -3814,17 +3814,17 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Driver, Equip</t>
+          <t>@ WI Dells, Follow in her own car, Until 2</t>
         </is>
       </c>
       <c r="L63" t="inlineStr"/>
@@ -3861,17 +3861,17 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>@ WI Dells, Follow in her own car, Until 2</t>
+          <t>@ WI Dells</t>
         </is>
       </c>
       <c r="L64" t="inlineStr"/>
@@ -3906,21 +3906,9 @@
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>@ WI Dells</t>
-        </is>
-      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
@@ -3989,7 +3977,11 @@
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6:30 AM START </t>
+        </is>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
@@ -4026,7 +4018,7 @@
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:30 AM START </t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="K68" t="inlineStr"/>
@@ -4057,7 +4049,7 @@
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>KELLEY #38, APPLEWOOD MOBIL, LOVES PARK</t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
@@ -4088,7 +4080,7 @@
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
-          <t>KELLEY #38, APPLEWOOD MOBIL, LOVES PARK</t>
+          <t>5542 E RIVERSIDE BLVD</t>
         </is>
       </c>
       <c r="K70" t="inlineStr"/>
@@ -4119,7 +4111,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>5542 E RIVERSIDE BLVD</t>
+          <t>https://goo.gl/maps/ogxkZD8yWLL2</t>
         </is>
       </c>
       <c r="K71" t="inlineStr"/>
@@ -4148,11 +4140,7 @@
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/ogxkZD8yWLL2</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
@@ -4178,9 +4166,21 @@
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
@@ -4207,19 +4207,15 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr"/>
@@ -4246,12 +4242,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="K75" t="inlineStr"/>
@@ -4281,12 +4277,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K76" t="inlineStr"/>
@@ -4316,12 +4312,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="K77" t="inlineStr"/>
@@ -4351,12 +4347,12 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="K78" t="inlineStr"/>
@@ -4386,12 +4382,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="K79" t="inlineStr"/>
@@ -4421,12 +4417,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="K80" t="inlineStr"/>
@@ -4445,41 +4441,6 @@
       <c r="X80" t="inlineStr"/>
       <c r="Y80" t="inlineStr"/>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr"/>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="inlineStr"/>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="inlineStr"/>
-      <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr"/>
-      <c r="V81" t="inlineStr"/>
-      <c r="W81" t="inlineStr"/>
-      <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/01-19-25 to 01-25-25 Madison Schedule.xlsx
+++ b/01-19-25 to 01-25-25 Madison Schedule.xlsx
@@ -1352,7 +1352,11 @@
           <t>Nate</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>work w/ Qiana</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>

--- a/01-19-25 to 01-25-25 Madison Schedule.xlsx
+++ b/01-19-25 to 01-25-25 Madison Schedule.xlsx
@@ -1409,7 +1409,7 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2600 BRANIGAN RD   SUITE E</t>
+          <t>2600 BRANIGAN RD, SUITE E</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>

--- a/01-19-25 to 01-25-25 Madison Schedule.xlsx
+++ b/01-19-25 to 01-25-25 Madison Schedule.xlsx
@@ -1601,7 +1601,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -1674,7 +1674,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -1814,7 +1814,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -1936,7 +1936,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2007,7 +2007,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2067,21 +2067,9 @@
         </is>
       </c>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>Victor</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2199,7 +2187,11 @@
       </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>8:00 AM START</t>
+        </is>
+      </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr">
@@ -2253,7 +2245,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>8:00 AM START</t>
+          <t xml:space="preserve">DC5-ITEM LEVEL </t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2312,7 +2304,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL </t>
+          <t>MILE BLUFF RETAIL IN PHILLIPS RX OUTPATIENT PHARMACY, MAUSTON</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2371,7 +2363,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>MILE BLUFF RETAIL IN PHILLIPS RX OUTPATIENT PHARMACY, MAUSTON</t>
+          <t>123 E STATE ST</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2426,7 +2418,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>123 E STATE ST</t>
+          <t>https://goo.gl/maps/gE2iRCFTg6xp5x8Y9</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2493,7 +2485,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/gE2iRCFTg6xp5x8Y9</t>
+          <t>7:30 am meet for Sarah, Aivy &amp; Lori at WI Dells Walmart</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2550,11 +2542,7 @@
       </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>7:30 am meet for Sarah, Aivy &amp; Lori at WI Dells Walmart</t>
-        </is>
-      </c>
+      <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
@@ -2604,9 +2592,21 @@
         </is>
       </c>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Driver, Equip</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
@@ -2657,17 +2657,17 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Driver, Equip</t>
+          <t>@ WI Dells</t>
         </is>
       </c>
       <c r="P41" t="inlineStr"/>
@@ -2736,12 +2736,12 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -2803,21 +2803,9 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>@ WI Dells</t>
-        </is>
-      </c>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
@@ -2907,7 +2895,11 @@
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
@@ -2960,7 +2952,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -3015,7 +3007,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>KELLEY #41, WINNEBAGO MOBIL</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -3070,7 +3062,7 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>KELLEY #41, WINNEBAGO MOBIL</t>
+          <t>903 N ELIDA ST</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -3125,7 +3117,7 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>903 N ELIDA ST</t>
+          <t>https://goo.gl/maps/2n1o2yip8H52</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -3178,11 +3170,7 @@
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/2n1o2yip8H52</t>
-        </is>
-      </c>
+      <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
@@ -3224,9 +3212,21 @@
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
@@ -3293,19 +3293,15 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
@@ -3368,12 +3364,12 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3427,12 +3423,12 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3486,12 +3482,12 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3537,12 +3533,12 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3588,12 +3584,12 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3629,16 +3625,8 @@
       </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
